--- a/public/Excels/reporte bienes 9abril2024.xlsx
+++ b/public/Excels/reporte bienes 9abril2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leito\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030F49AD-21A5-4827-92C5-43918903E972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A441D7D7-99D8-47D4-8405-4AF2BB3D2E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte_Muebles_09_04_2024 12_2" sheetId="1" r:id="rId1"/>
@@ -2396,8 +2396,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T431"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="P3" s="3">
-        <v>923211528</v>
+        <v>2222222222</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>20</v>
@@ -2660,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="P4" s="3">
-        <v>1725348070</v>
+        <v>2222222222</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>21</v>
@@ -2723,7 +2723,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="3">
-        <v>1716193394</v>
+        <v>2222222222</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>13</v>
@@ -2786,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="P6" s="3">
-        <v>1716193394</v>
+        <v>2222222222</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>13</v>
@@ -2849,7 +2849,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="3">
-        <v>1716193394</v>
+        <v>2222222222</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>13</v>
@@ -2912,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="P8" s="3">
-        <v>1717441685</v>
+        <v>2222222222</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>22</v>
@@ -2975,7 +2975,7 @@
         <v>9</v>
       </c>
       <c r="P9" s="3">
-        <v>1725624603</v>
+        <v>2222222222</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>23</v>
@@ -3038,7 +3038,7 @@
         <v>9</v>
       </c>
       <c r="P10" s="3">
-        <v>1716193394</v>
+        <v>2222222222</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>13</v>
@@ -3101,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="3">
-        <v>1716193394</v>
+        <v>2222222222</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="P12" s="3">
-        <v>1716193394</v>
+        <v>2222222222</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>13</v>
@@ -3227,7 +3227,7 @@
         <v>9</v>
       </c>
       <c r="P13" s="3">
-        <v>1716193394</v>
+        <v>2222222222</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>13</v>
@@ -3290,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="P14" s="3">
-        <v>201045978</v>
+        <v>1111111111</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>29</v>
@@ -3353,7 +3353,7 @@
         <v>9</v>
       </c>
       <c r="P15" s="3">
-        <v>1714733399</v>
+        <v>1111111111</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>30</v>
@@ -3416,7 +3416,7 @@
         <v>9</v>
       </c>
       <c r="P16" s="3">
-        <v>917496507</v>
+        <v>1111111111</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>31</v>
@@ -3479,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="P17" s="3">
-        <v>1716193394</v>
+        <v>1111111111</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>13</v>
@@ -3542,7 +3542,7 @@
         <v>9</v>
       </c>
       <c r="P18" s="3">
-        <v>1716193394</v>
+        <v>1111111111</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>13</v>
@@ -3605,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="P19" s="3">
-        <v>1715422919</v>
+        <v>1111111111</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>38</v>
@@ -3668,7 +3668,7 @@
         <v>9</v>
       </c>
       <c r="P20" s="3">
-        <v>1721300521</v>
+        <v>1111111111</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>39</v>
